--- a/Εργασίες που έγιναν για το Socialthesis κατάσταση και χρόνοι.xlsx
+++ b/Εργασίες που έγιναν για το Socialthesis κατάσταση και χρόνοι.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="51">
   <si>
     <t>Διαδικασία - Εργασία</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Ανέβασμα αρχείων στο Github</t>
   </si>
   <si>
-    <t>Βελτίωση project με follow φοιτητή σε καθηγητή</t>
-  </si>
-  <si>
     <t>Βελτίωση project με εισαγωγή search</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
   </si>
   <si>
     <t>Όλο το χρονικό διάστημα της εργασίας</t>
-  </si>
-  <si>
-    <t>μμμ</t>
   </si>
   <si>
     <t>Μπούχτοβα Λουτσιε</t>
@@ -565,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3">
         <v>42670</v>
@@ -658,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -686,7 +680,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3">
         <v>42671</v>
@@ -698,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -718,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -729,7 +723,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -738,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -758,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -766,7 +760,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3">
         <v>42687</v>
@@ -778,7 +772,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -786,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3">
         <v>42687</v>
@@ -798,7 +792,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -806,7 +800,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3">
         <v>42687</v>
@@ -818,7 +812,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -826,7 +820,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3">
         <v>42687</v>
@@ -838,7 +832,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -846,7 +840,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
         <v>42686</v>
@@ -858,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -866,7 +860,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3">
         <v>42687</v>
@@ -878,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -886,7 +880,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3">
         <v>42688</v>
@@ -918,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -938,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -958,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -978,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -986,7 +980,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3">
         <v>42689</v>
@@ -996,7 +990,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1004,7 +998,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3">
         <v>42693</v>
@@ -1014,7 +1008,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1022,7 +1016,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3">
         <v>42694</v>
@@ -1040,17 +1034,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3">
         <v>42722</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,17 +1052,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1076,17 +1068,15 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1094,17 +1084,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="C27" s="3">
+        <v>42734</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
       <c r="F27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1112,50 +1104,50 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C28" s="3">
-        <v>42734</v>
+        <v>42735</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C29" s="3">
-        <v>42735</v>
+        <v>42737</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C30" s="3">
-        <v>42737</v>
+        <v>42742</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -1164,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1172,59 +1164,57 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3">
-        <v>42742</v>
+        <v>42745</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C32" s="3">
-        <v>42745</v>
+        <v>42740</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C33" s="3">
-        <v>42740</v>
+        <v>42746</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="2">
-        <v>3</v>
-      </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1232,17 +1222,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="C34" s="3">
+        <v>42741</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1250,17 +1240,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C35" s="3">
-        <v>42741</v>
+        <v>42743</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1271,16 +1263,16 @@
         <v>21</v>
       </c>
       <c r="C36" s="3">
-        <v>42743</v>
+        <v>42745</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1288,7 +1280,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C37" s="3">
         <v>42745</v>
@@ -1297,10 +1289,10 @@
         <v>6</v>
       </c>
       <c r="E37" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1308,19 +1300,17 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C38" s="3">
-        <v>42745</v>
+        <v>42746</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="2">
-        <v>2</v>
-      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1328,54 +1318,36 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="3">
         <v>42746</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C40" s="3">
-        <v>42746</v>
+        <v>42748</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="3">
-        <v>42748</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="2">
-        <v>3</v>
-      </c>
-      <c r="F41" s="2" t="s">
         <v>9</v>
       </c>
     </row>
